--- a/Excel-2.xlsx
+++ b/Excel-2.xlsx
@@ -6,13 +6,18 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="A" r:id="rId3" sheetId="1"/>
+    <sheet name="A+" r:id="rId4" sheetId="2"/>
+    <sheet name="A-" r:id="rId5" sheetId="3"/>
+    <sheet name="B" r:id="rId6" sheetId="4"/>
+    <sheet name="B+" r:id="rId7" sheetId="5"/>
+    <sheet name="B-" r:id="rId8" sheetId="6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="38">
   <si>
     <t>Student #</t>
   </si>
@@ -26,31 +31,64 @@
     <t>Score</t>
   </si>
   <si>
+    <t>s-002</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Class-A</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>s-003</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>s-006</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
+    <t>Class-C</t>
+  </si>
+  <si>
+    <t>s-011</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
     <t>s-001</t>
   </si>
   <si>
     <t>James</t>
   </si>
   <si>
-    <t>Class-A</t>
-  </si>
-  <si>
     <t>A+</t>
   </si>
   <si>
-    <t>s-002</t>
-  </si>
-  <si>
-    <t>Robert</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>s-003</t>
-  </si>
-  <si>
-    <t>Jennifer</t>
+    <t>s-007</t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>s-010</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>Class-B</t>
+  </si>
+  <si>
+    <t>A-</t>
   </si>
   <si>
     <t>s-004</t>
@@ -59,12 +97,24 @@
     <t>Linda</t>
   </si>
   <si>
-    <t>Class-B</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
+    <t>s-008</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>s-012</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>Class-D</t>
+  </si>
+  <si>
     <t>s-005</t>
   </si>
   <si>
@@ -74,27 +124,6 @@
     <t>B+</t>
   </si>
   <si>
-    <t>s-006</t>
-  </si>
-  <si>
-    <t>Susan</t>
-  </si>
-  <si>
-    <t>Class-C</t>
-  </si>
-  <si>
-    <t>s-007</t>
-  </si>
-  <si>
-    <t>Jessica</t>
-  </si>
-  <si>
-    <t>s-008</t>
-  </si>
-  <si>
-    <t>Sarah</t>
-  </si>
-  <si>
     <t>s-009</t>
   </si>
   <si>
@@ -102,30 +131,6 @@
   </si>
   <si>
     <t>B-</t>
-  </si>
-  <si>
-    <t>s-010</t>
-  </si>
-  <si>
-    <t>Joseph</t>
-  </si>
-  <si>
-    <t>A-</t>
-  </si>
-  <si>
-    <t>s-011</t>
-  </si>
-  <si>
-    <t>Charles</t>
-  </si>
-  <si>
-    <t>s-012</t>
-  </si>
-  <si>
-    <t>Lisa</t>
-  </si>
-  <si>
-    <t>Class-D</t>
   </si>
 </sst>
 </file>
@@ -189,7 +194,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -240,21 +245,21 @@
         <v>6</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="C4" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="C4" t="s" s="2">
-        <v>6</v>
-      </c>
       <c r="D4" t="s" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -265,122 +270,287 @@
         <v>14</v>
       </c>
       <c r="C5" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="16.19921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="10.3359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.16015625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.515625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="B2" t="s" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
+      <c r="C2" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="B6" t="s" s="2">
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="C6" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s" s="2">
+      <c r="B3" t="s" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
+      <c r="C3" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="16.19921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="10.3359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.16015625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.515625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="B2" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="C2" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="D7" t="s" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
+      <c r="D2" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B8" t="s" s="2">
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="16.19921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="10.3359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.16015625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.515625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="C8" t="s" s="2">
+      <c r="B2" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="D8" t="s" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s" s="2">
+      <c r="D2" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="C9" t="s" s="2">
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="D9" t="s" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s" s="2">
+      <c r="D3" t="s" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="16.19921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="10.3359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.16015625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.515625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="16.19921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="10.3359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.16015625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.515625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="D10" t="s" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="C13" t="s" s="2">
+      <c r="D2" t="s" s="2">
         <v>37</v>
-      </c>
-      <c r="D13" t="s" s="2">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
